--- a/ChaiYo folder/chaiYo_cort.xlsx
+++ b/ChaiYo folder/chaiYo_cort.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\陽生\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\陽生\Documents\program\ChaiYo folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,16 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="1"/>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -151,8 +142,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.1914260717410323E-2"/>
-          <c:y val="0.18611111111111112"/>
+          <c:x val="9.7458226430557043E-2"/>
+          <c:y val="0.18611107611548558"/>
           <c:w val="0.85219685039370074"/>
           <c:h val="0.7157487605715952"/>
         </c:manualLayout>
@@ -177,90 +168,132 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$15</c:f>
+              <c:f>Sheet1!$B:$B</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
+                <c:ptCount val="1048576"/>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>1295</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>2358</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3445</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4223</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>5310</c:v>
+                  <c:v>2340.869795323355</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6376</c:v>
+                  <c:v>3427.869795323355</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6750</c:v>
+                  <c:v>4192.3484697977165</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7228</c:v>
+                  <c:v>5279.3484697977165</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6874</c:v>
+                  <c:v>6324.2343800831377</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7228</c:v>
+                  <c:v>6701.2343800831377</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6874</c:v>
+                  <c:v>7178.2343800831377</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6825.2343800831377</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7178.2343800831377</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6825.2343800831377</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7390.2343800831377</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8026.2343800831377</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8914.2191772502956</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10450.76237547155</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11367.031440757506</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12236.772781616959</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13391.772781616959</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$15</c:f>
+              <c:f>Sheet1!$C:$C</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
+                <c:ptCount val="1048576"/>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>295</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>922</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>1700</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>2328</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>2698</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>1497</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>1019</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>665</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>312</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>41</c:v>
+                <c:pt idx="14">
+                  <c:v>-41</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-606</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1243</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1831</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-823</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1614</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1831</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1831</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -283,15 +316,13 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet2!$B:$B</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>x</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -299,9 +330,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048576"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -315,11 +343,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="292061624"/>
-        <c:axId val="292062408"/>
+        <c:axId val="305435072"/>
+        <c:axId val="305435464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="292061624"/>
+        <c:axId val="305435072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -376,15 +404,15 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="292062408"/>
+        <c:crossAx val="305435464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="292062408"/>
+        <c:axId val="305435464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="8000"/>
+          <c:max val="5000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -439,9 +467,10 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="292061624"/>
+        <c:crossAx val="305435072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="6000"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1048,16 +1077,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>166687</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>448773</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>65209</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>623887</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>463062</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>27109</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1342,10 +1371,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:C15"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:C22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1368,7 +1412,8 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B6">
-        <v>2358</v>
+        <f>B5+1063*COS(RADIANS(10.3))</f>
+        <v>2340.869795323355</v>
       </c>
       <c r="C6">
         <v>295</v>
@@ -1376,7 +1421,8 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B7">
-        <v>3445</v>
+        <f>B6+1087</f>
+        <v>3427.869795323355</v>
       </c>
       <c r="C7">
         <v>922</v>
@@ -1384,7 +1430,8 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B8">
-        <v>4223</v>
+        <f>B7+777*COS(RADIANS(10.3))</f>
+        <v>4192.3484697977165</v>
       </c>
       <c r="C8">
         <v>1700</v>
@@ -1392,7 +1439,8 @@
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B9">
-        <v>5310</v>
+        <f>B8+1087</f>
+        <v>5279.3484697977165</v>
       </c>
       <c r="C9">
         <v>2328</v>
@@ -1400,7 +1448,8 @@
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B10">
-        <v>6376</v>
+        <f>B9+1062*COS(RADIANS(10.3))</f>
+        <v>6324.2343800831377</v>
       </c>
       <c r="C10">
         <v>2698</v>
@@ -1408,7 +1457,8 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B11">
-        <v>6750</v>
+        <f>B10+377</f>
+        <v>6701.2343800831377</v>
       </c>
       <c r="C11">
         <v>1497</v>
@@ -1416,7 +1466,8 @@
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B12">
-        <v>7228</v>
+        <f>B11+477</f>
+        <v>7178.2343800831377</v>
       </c>
       <c r="C12">
         <v>1019</v>
@@ -1424,7 +1475,8 @@
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B13">
-        <v>6874</v>
+        <f>B12-353</f>
+        <v>6825.2343800831377</v>
       </c>
       <c r="C13">
         <v>665</v>
@@ -1432,7 +1484,8 @@
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B14">
-        <v>7228</v>
+        <f>B13+353</f>
+        <v>7178.2343800831377</v>
       </c>
       <c r="C14">
         <v>312</v>
@@ -1440,39 +1493,81 @@
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B15">
-        <v>6874</v>
+        <f>B14-353</f>
+        <v>6825.2343800831377</v>
       </c>
       <c r="C15">
-        <v>41</v>
+        <v>-41</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B16">
+        <f>B15+565</f>
+        <v>7390.2343800831377</v>
+      </c>
+      <c r="C16">
+        <v>-606</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B17">
+        <f>B16+636</f>
+        <v>8026.2343800831377</v>
+      </c>
+      <c r="C17">
+        <v>-1243</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B18">
+        <f>B17+SQRT(879*879+126*126)</f>
+        <v>8914.2191772502956</v>
+      </c>
+      <c r="C18">
+        <f>-1831</f>
+        <v>-1831</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B19">
+        <f>B18+SQRT(1521*1521+218*218)</f>
+        <v>10450.76237547155</v>
+      </c>
+      <c r="C19">
+        <v>-823</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B20">
+        <f>B19+SQRT(907*907+130*130)</f>
+        <v>11367.031440757506</v>
+      </c>
+      <c r="C20">
+        <v>-1614</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B21">
+        <f>B20+SQRT(861*861+123*123)</f>
+        <v>12236.772781616959</v>
+      </c>
+      <c r="C21">
+        <v>-1831</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B22">
+        <f>B21+1155</f>
+        <v>13391.772781616959</v>
+      </c>
+      <c r="C22">
+        <v>-1831</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ChaiYo folder/chaiYo_cort.xlsx
+++ b/ChaiYo folder/chaiYo_cort.xlsx
@@ -22,10 +22,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -343,11 +339,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="305435072"/>
-        <c:axId val="305435464"/>
+        <c:axId val="351341816"/>
+        <c:axId val="351345344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="305435072"/>
+        <c:axId val="351341816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -404,12 +400,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="305435464"/>
+        <c:crossAx val="351345344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="305435464"/>
+        <c:axId val="351345344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5000"/>
@@ -467,7 +463,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="305435072"/>
+        <c:crossAx val="351341816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="6000"/>
@@ -1083,10 +1079,10 @@
       <xdr:rowOff>65209</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>463062</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>27109</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>435428</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1388,8 +1384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U39" sqref="U39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
